--- a/06_weitere_Dateien/git-Namen.xlsx
+++ b/06_weitere_Dateien/git-Namen.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65E64C-593E-CC48-861C-A6780A123262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -46,12 +47,24 @@
   </si>
   <si>
     <t>chrisdancer</t>
+  </si>
+  <si>
+    <t>BobMcGlobus</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
+  </si>
+  <si>
+    <t>Pascal Feinauer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,24 +375,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,15 +412,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
